--- a/数据整理/stocks/港股/01211-比亚迪股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3857,4 +3858,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01211-比亚迪股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份有限公司.xlsx
@@ -3882,12 +3882,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01211-比亚迪股份有限公司.xlsx
+++ b/数据整理/stocks/港股/01211-比亚迪股份有限公司.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,923 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001875</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>173.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.7962</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.58</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010717</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>101.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8935</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001837</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>56.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2838</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.1772</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>900008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2319</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000041</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8695</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501311</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>19.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7809</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001874</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>18.96</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6276</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>900078</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信证券稳健回报混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3888</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010718</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>85.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3512</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006614</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2228</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006768</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华安沪港深优选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1014</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008709</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河龙头精选股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0579</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>900027</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0544</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005698</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏全球科技先锋混合QDII</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006786</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006787</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>泰康中证港股通大消费主题指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>900077</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>900087</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3866,64 +3008,922 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.58</v>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.03</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6276</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3512</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>